--- a/C_Interview/C_Quiz/QuizC_LG.xlsx
+++ b/C_Interview/C_Quiz/QuizC_LG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LGEDV\C_Training_LG\C_Training\Traning_Plan\Traning_Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\180_Days_Road_To_LGEDV\180_Days_Road_To_LGEDV\C_Interview\C_Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3C3CDB-D346-48EC-96F7-5708A1B4197A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEFD969-D6A9-462E-A6E2-A2E51839CDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1095" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>Course Name: Embedded C VHA</t>
   </si>
@@ -484,6 +484,25 @@
 3. 2.5
 4. 2.75</t>
     </r>
+  </si>
+  <si>
+    <t>Vì sao Alignment tối ưu execute time (thời gian thực thi)?
+CPU đọc bộ nhớ theo từng “word” (2, 4, 8 byte tùy kiến trúc).
+Khi dữ liệu được căn chỉnh (aligned) đúng biên:
+CPU có thể đọc dữ liệu trong 1 lần truy cập
+Không cần đọc hai phần bộ nhớ rồi ghép lại
+Không cần xử lý thêm micro-operations
+→ Giảm số chu kỳ CPU
+→ Tăng tốc độ truy cập dữ liệu
+→ Tăng performance tổng thể
+Đó là lý do alignment giúp tối ưu speed.
+❌ Các đáp án sai
+1. Optimize build time → KHÔNG liên quan
+Alignment chỉ ảnh hưởng runtime, không ảnh hưởng quá trình build.
+3. Optimize size of code → SAI
+Alignment thường làm tăng kích thước (padding).
+4. Optimize stack size → SAI
+Alignment thường làm stack được căn lớn hơn, không thu nhỏ stack.</t>
   </si>
 </sst>
 </file>
@@ -1306,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBEBA40-14B1-4CA4-9E38-EAFEE93B7735}">
-  <dimension ref="B3:E19"/>
+  <dimension ref="B3:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1319,7 +1338,7 @@
     <col min="5" max="5" width="60.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
         <v>33</v>
       </c>
@@ -1333,7 +1352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="84" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="84" x14ac:dyDescent="0.3">
       <c r="B4" s="10">
         <v>1</v>
       </c>
@@ -1347,7 +1366,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="84" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="84" x14ac:dyDescent="0.3">
       <c r="B5" s="11">
         <v>2</v>
       </c>
@@ -1361,7 +1380,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="70" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="409.5" x14ac:dyDescent="0.3">
       <c r="B6" s="11">
         <v>3</v>
       </c>
@@ -1374,8 +1393,11 @@
       <c r="E6" s="18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="70" x14ac:dyDescent="0.3">
+      <c r="F6" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="70" x14ac:dyDescent="0.3">
       <c r="B7" s="11">
         <v>4</v>
       </c>
@@ -1389,7 +1411,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="298.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="298.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>5</v>
       </c>
@@ -1403,7 +1425,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="362.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="362.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>6</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="70" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="70" x14ac:dyDescent="0.3">
       <c r="B10" s="11">
         <v>7</v>
       </c>
@@ -1431,7 +1453,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>8</v>
       </c>
@@ -1445,7 +1467,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="205.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="205.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>9</v>
       </c>
@@ -1459,7 +1481,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="206.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="206.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>10</v>
       </c>
@@ -1473,7 +1495,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>11</v>
       </c>
@@ -1487,7 +1509,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="218.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="218.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>12</v>
       </c>
@@ -1501,7 +1523,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>13</v>
       </c>

--- a/C_Interview/C_Quiz/QuizC_LG.xlsx
+++ b/C_Interview/C_Quiz/QuizC_LG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\180_Days_Road_To_LGEDV\180_Days_Road_To_LGEDV\C_Interview\C_Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEFD969-D6A9-462E-A6E2-A2E51839CDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4F6D77-1376-403F-BBC5-895EE4736C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1095" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>Course Name: Embedded C VHA</t>
   </si>
@@ -503,6 +503,32 @@
 Alignment thường làm tăng kích thước (padding).
 4. Optimize stack size → SAI
 Alignment thường làm stack được căn lớn hơn, không thu nhỏ stack.</t>
+  </si>
+  <si>
+    <t>🔥 GIẢI THÍCH NGẮN GỌN – DỄ HIỂU
+✔ float (IEEE-754 single precision) chỉ biểu diễn chính xác được đến 2²⁴ = 16,777,216
+Số lớn nhất mà float có thể biểu diễn chính xác từng đơn vị là:
+2^24 = 16777216
+Bất kỳ số nào lớn hơn 16777216 nhưng không đủ khoảng spacing, float sẽ làm tròn.
+⭐ Phân tích từng biến
+1️⃣ unsigned int b = 16777216;
+→ b lưu chính xác giá trị 16777216
+→ Vì nó là số nguyên 32-bit → không mất gì
+2️⃣ float a = 16777217;
+Float không thể giữ chính xác 16777217
+Vì:
+16777217 = 2^24 + 1
+Nhưng float không thể biểu diễn +1 ở mức này → nó sẽ làm tròn về 16777216.
+Do đó:
+a == 16777216.0f
+🎯 Kết luận khi so sánh:
+Biến	Giá trị thực sự lưu trong bộ nhớ
+a (float)	16777216.0 (bị làm tròn)
+b (unsigned int)	16777216
+→ a == b là đúng.
+🧠 Kết quả in ra:
+a == b
+✔ Đáp án: 3. a == b</t>
   </si>
 </sst>
 </file>
@@ -1327,15 +1353,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBEBA40-14B1-4CA4-9E38-EAFEE93B7735}">
   <dimension ref="B3:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="76.83203125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="60.75" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="69.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
@@ -1380,7 +1407,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="70" x14ac:dyDescent="0.3">
       <c r="B6" s="11">
         <v>3</v>
       </c>
@@ -1393,11 +1420,8 @@
       <c r="E6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="70" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:6" ht="406" x14ac:dyDescent="0.3">
       <c r="B7" s="11">
         <v>4</v>
       </c>
@@ -1409,6 +1433,9 @@
       </c>
       <c r="E7" s="18" t="s">
         <v>37</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="298.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1423,6 +1450,9 @@
       </c>
       <c r="E8" s="26" t="s">
         <v>37</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="362.25" customHeight="1" x14ac:dyDescent="0.3">
